--- a/src/assets/excel/PAYMENT_EXCEL_TEMPLATE.xlsx
+++ b/src/assets/excel/PAYMENT_EXCEL_TEMPLATE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27407"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B0CBF4-2586-48C5-BA01-63991C0695CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43701161-88F0-4A61-A40E-616F3CBA4FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,18 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>recepient_name</t>
-  </si>
-  <si>
-    <t>recepient_email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>recepientName</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>country</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>currency</t>
   </si>
   <si>
     <t>amount</t>
@@ -397,21 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="5" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -426,6 +429,9 @@
       </c>
       <c r="F2" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
